--- a/index.xlsx
+++ b/index.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>Prefijo</t>
   </si>
@@ -84,7 +84,113 @@
     <t>Comentarios</t>
   </si>
   <si>
+    <t>PhD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mijail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eluani </t>
+  </si>
+  <si>
+    <t>La Salle CDMX</t>
+  </si>
+  <si>
+    <t>Dircom</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>CDMX</t>
+  </si>
+  <si>
+    <t>06140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benjamin Franklin </t>
+  </si>
+  <si>
+    <t>(+52)</t>
+  </si>
+  <si>
+    <t>(5540214822)</t>
+  </si>
+  <si>
+    <t>(5552789500)</t>
+  </si>
+  <si>
+    <t>maep@ulsa.mx</t>
+  </si>
+  <si>
+    <t>meluani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meluani </t>
+  </si>
+  <si>
+    <t>(55284818)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tony </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No me gusta el huevo, ni las verduras. 
+</t>
+  </si>
+  <si>
     <t>Acompaña a:</t>
+  </si>
+  <si>
+    <t>Pepa</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Pepos</t>
+  </si>
+  <si>
+    <t>De Pep</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>Addr1</t>
+  </si>
+  <si>
+    <t>Pepa@pepe.com</t>
+  </si>
+  <si>
+    <t>(+1)</t>
+  </si>
+  <si>
+    <t>(54321)</t>
+  </si>
+  <si>
+    <t>(123456)</t>
+  </si>
+  <si>
+    <t>(5555555)</t>
+  </si>
+  <si>
+    <t>Pepe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mijail  Eluani </t>
   </si>
 </sst>
 </file>
@@ -423,7 +529,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,29 +538,29 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="29.421387" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="22.280273" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="26.993408" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="26.993408" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="47.131348" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -529,6 +635,80 @@
       </c>
       <c r="X1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2">
+        <v>45</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -552,7 +732,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,13 +743,13 @@
     <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="5.855713" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="5.855713" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="5.855713" bestFit="true" customWidth="true" style="0"/>
@@ -578,7 +758,7 @@
     <col min="16" max="16" width="26.993408" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="26.993408" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="18.709717" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -637,7 +817,62 @@
         <v>21</v>
       </c>
       <c r="S1" t="s">
-        <v>22</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2"/>
+      <c r="S2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
